--- a/output/sites/table_summary_sites_scat_compo_data.xlsx
+++ b/output/sites/table_summary_sites_scat_compo_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Site</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t xml:space="preserve">variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
   </si>
   <si>
     <t xml:space="preserve">Fe</t>
@@ -425,526 +428,583 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
+        <v>42044.452</v>
+      </c>
+      <c r="E2" t="n">
         <v>3818.008</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>478.828</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>274.276</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>73.276</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>38.75</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>3.113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
+        <v>24394.427</v>
+      </c>
+      <c r="E3" t="n">
         <v>2128.066</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>485.818</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>232.724</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>51.078</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>30.121</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>1.798</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
+        <v>41462.118</v>
+      </c>
+      <c r="E4" t="n">
         <v>4572.326</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>244.334</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>215.256</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>59.667</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>29.302</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>3.457</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="E5" t="n">
         <v>1.198</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.51</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.785</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>0.814</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.756</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>1.111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
+        <v>2007.262</v>
+      </c>
+      <c r="E6" t="n">
         <v>148.573</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>76.349</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>14.002</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>12.677</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>3.781</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>0.111</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
+        <v>129586.029</v>
+      </c>
+      <c r="E7" t="n">
         <v>16909.074</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>1092.483</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>752.255</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>212.474</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>126.453</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>13.138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="n">
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
+        <v>52940.73</v>
+      </c>
+      <c r="E8" t="n">
         <v>3454.959</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>356.251</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>109.026</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>95.467</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>24.623</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>2.805</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
+        <v>37049.879</v>
+      </c>
+      <c r="E9" t="n">
         <v>569.628</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>315.225</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>59.567</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>23.08</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>17.844</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.675</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="n">
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
+        <v>46551.561</v>
+      </c>
+      <c r="E10" t="n">
         <v>4517.479</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>212.802</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>111.721</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>119.021</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>18.892</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>3.387</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="n">
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="E11" t="n">
         <v>1.308</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.597</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>1.025</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>1.247</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0.767</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>1.207</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
+        <v>3966.464</v>
+      </c>
+      <c r="E12" t="n">
         <v>25.86</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>22.748</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>17.113</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>9.282</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>2.813</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>0.057</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" t="n">
+        <v>138132.547</v>
+      </c>
+      <c r="E13" t="n">
         <v>13363.075</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>911.705</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>402.174</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>388.316</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>85.179</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>9.615</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
         <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
+        <v>47687.168</v>
+      </c>
+      <c r="E14" t="n">
         <v>3630.001</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>415.35</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>188.7</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>84.768</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>31.434</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>2.954</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n">
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" t="n">
+        <v>28174.344</v>
+      </c>
+      <c r="E15" t="n">
         <v>1529.014</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>389.876</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>122.604</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>32.082</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>24.535</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>1.071</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n">
         <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" t="n">
+        <v>44114.358</v>
+      </c>
+      <c r="E16" t="n">
         <v>4506.19</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>234.723</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>187.617</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>94.974</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>25.265</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>3.393</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n">
         <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="E17" t="n">
         <v>1.241</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.565</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.994</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>1.12</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>0.804</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>1.149</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n">
         <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
+        <v>2007.262</v>
+      </c>
+      <c r="E18" t="n">
         <v>25.86</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>22.748</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>14.002</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>9.282</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>2.813</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>0.057</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="n">
         <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" t="n">
+        <v>138132.547</v>
+      </c>
+      <c r="E19" t="n">
         <v>16909.074</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1092.483</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>752.255</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>388.316</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>126.453</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>13.138</v>
       </c>
     </row>
